--- a/Code/Results/Cases/Case_1_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9937629107150224</v>
+        <v>1.026250579526633</v>
       </c>
       <c r="D2">
-        <v>1.049123164488782</v>
+        <v>1.053931840132151</v>
       </c>
       <c r="E2">
-        <v>1.015821600110375</v>
+        <v>1.038910667876532</v>
       </c>
       <c r="F2">
-        <v>1.038375542590176</v>
+        <v>1.055748805978192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062419501514497</v>
+        <v>1.04347076485328</v>
       </c>
       <c r="J2">
-        <v>1.016131785972065</v>
+        <v>1.031415066543644</v>
       </c>
       <c r="K2">
-        <v>1.059938065730425</v>
+        <v>1.056676446262077</v>
       </c>
       <c r="L2">
-        <v>1.027064829065168</v>
+        <v>1.041697355734919</v>
       </c>
       <c r="M2">
-        <v>1.049324931774046</v>
+        <v>1.058488409858822</v>
       </c>
       <c r="N2">
-        <v>1.009360454295425</v>
+        <v>1.014500921118896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9980377491391078</v>
+        <v>1.027158924581206</v>
       </c>
       <c r="D3">
-        <v>1.052438861033228</v>
+        <v>1.054581360211444</v>
       </c>
       <c r="E3">
-        <v>1.019342413055655</v>
+        <v>1.039691773165726</v>
       </c>
       <c r="F3">
-        <v>1.042194818128866</v>
+        <v>1.056553533799975</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063714907366657</v>
+        <v>1.043629259391321</v>
       </c>
       <c r="J3">
-        <v>1.018582050405011</v>
+        <v>1.031963303574436</v>
       </c>
       <c r="K3">
-        <v>1.062442020108122</v>
+        <v>1.057139527880136</v>
       </c>
       <c r="L3">
-        <v>1.029733644233504</v>
+        <v>1.042288647969613</v>
       </c>
       <c r="M3">
-        <v>1.052314839474698</v>
+        <v>1.059106662827597</v>
       </c>
       <c r="N3">
-        <v>1.010178514460865</v>
+        <v>1.014683003432843</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000748891188556</v>
+        <v>1.027747129478519</v>
       </c>
       <c r="D4">
-        <v>1.054530733529907</v>
+        <v>1.055000095123257</v>
       </c>
       <c r="E4">
-        <v>1.021577737178315</v>
+        <v>1.040197480597366</v>
       </c>
       <c r="F4">
-        <v>1.0446114520473</v>
+        <v>1.057073463683359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064516729998435</v>
+        <v>1.043729419100503</v>
       </c>
       <c r="J4">
-        <v>1.02013345963364</v>
+        <v>1.032317879723355</v>
       </c>
       <c r="K4">
-        <v>1.06401272272312</v>
+        <v>1.057436941424941</v>
       </c>
       <c r="L4">
-        <v>1.031422530475583</v>
+        <v>1.04267087643754</v>
       </c>
       <c r="M4">
-        <v>1.054199695756203</v>
+        <v>1.059505278445231</v>
       </c>
       <c r="N4">
-        <v>1.01069636304956</v>
+        <v>1.014800734056865</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001875952829486</v>
+        <v>1.027994516195931</v>
       </c>
       <c r="D5">
-        <v>1.055397633922188</v>
+        <v>1.055175758548427</v>
       </c>
       <c r="E5">
-        <v>1.022507520234834</v>
+        <v>1.040410145443765</v>
       </c>
       <c r="F5">
-        <v>1.045614674946342</v>
+        <v>1.057291852834006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064845255186131</v>
+        <v>1.043770951292097</v>
       </c>
       <c r="J5">
-        <v>1.020777758180637</v>
+        <v>1.032466901831127</v>
       </c>
       <c r="K5">
-        <v>1.064661444945733</v>
+        <v>1.057561438073082</v>
       </c>
       <c r="L5">
-        <v>1.032123695435909</v>
+        <v>1.042831473686673</v>
       </c>
       <c r="M5">
-        <v>1.05498046160407</v>
+        <v>1.059672511043899</v>
       </c>
       <c r="N5">
-        <v>1.010911395340677</v>
+        <v>1.014850206375642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002064459402479</v>
+        <v>1.028036059660763</v>
       </c>
       <c r="D6">
-        <v>1.055542464696361</v>
+        <v>1.055205231290668</v>
       </c>
       <c r="E6">
-        <v>1.022663060545336</v>
+        <v>1.040445856597764</v>
       </c>
       <c r="F6">
-        <v>1.045782384225247</v>
+        <v>1.057328510170977</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064899918223273</v>
+        <v>1.043777890981019</v>
       </c>
       <c r="J6">
-        <v>1.020885481534374</v>
+        <v>1.032491920822803</v>
       </c>
       <c r="K6">
-        <v>1.064769695120575</v>
+        <v>1.057582310122257</v>
       </c>
       <c r="L6">
-        <v>1.03224091283992</v>
+        <v>1.042858433261764</v>
       </c>
       <c r="M6">
-        <v>1.055110882144668</v>
+        <v>1.059700569826308</v>
       </c>
       <c r="N6">
-        <v>1.010947345809255</v>
+        <v>1.014858511715992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000764000365426</v>
+        <v>1.027750434659311</v>
       </c>
       <c r="D7">
-        <v>1.054542365900869</v>
+        <v>1.055002443813877</v>
       </c>
       <c r="E7">
-        <v>1.021590199660462</v>
+        <v>1.040200321980361</v>
       </c>
       <c r="F7">
-        <v>1.044624906711762</v>
+        <v>1.057076382556506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064521153212205</v>
+        <v>1.043729976316313</v>
       </c>
       <c r="J7">
-        <v>1.020142099563861</v>
+        <v>1.032319871129247</v>
       </c>
       <c r="K7">
-        <v>1.064021436237089</v>
+        <v>1.057438607063772</v>
       </c>
       <c r="L7">
-        <v>1.031431933889092</v>
+        <v>1.042673022707438</v>
       </c>
       <c r="M7">
-        <v>1.054210173692455</v>
+        <v>1.059507514374895</v>
       </c>
       <c r="N7">
-        <v>1.01069924671489</v>
+        <v>1.014801395193899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.995219274959572</v>
+        <v>1.026557466189795</v>
       </c>
       <c r="D8">
-        <v>1.05025501086404</v>
+        <v>1.05415166773525</v>
       </c>
       <c r="E8">
-        <v>1.017020549592969</v>
+        <v>1.039174587110455</v>
       </c>
       <c r="F8">
-        <v>1.039677833887573</v>
+        <v>1.0560209284306</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062864918869321</v>
+        <v>1.043524824430262</v>
       </c>
       <c r="J8">
-        <v>1.016967070664174</v>
+        <v>1.031600380365927</v>
       </c>
       <c r="K8">
-        <v>1.060794700762921</v>
+        <v>1.056833407751942</v>
       </c>
       <c r="L8">
-        <v>1.027974798643781</v>
+        <v>1.041897263021386</v>
       </c>
       <c r="M8">
-        <v>1.050345883634036</v>
+        <v>1.058697647494623</v>
       </c>
       <c r="N8">
-        <v>1.009639350135039</v>
+        <v>1.01456247485339</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9850061133397253</v>
+        <v>1.024458760416448</v>
       </c>
       <c r="D9">
-        <v>1.042274813457467</v>
+        <v>1.052640728521675</v>
       </c>
       <c r="E9">
-        <v>1.008624770640133</v>
+        <v>1.037369326685384</v>
       </c>
       <c r="F9">
-        <v>1.030524285003965</v>
+        <v>1.054155173306565</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05966046086376</v>
+        <v>1.04314501290252</v>
       </c>
       <c r="J9">
-        <v>1.011099686049957</v>
+        <v>1.030331290105887</v>
       </c>
       <c r="K9">
-        <v>1.054717323571731</v>
+        <v>1.055749960845857</v>
       </c>
       <c r="L9">
-        <v>1.021579449802336</v>
+        <v>1.040527444004273</v>
       </c>
       <c r="M9">
-        <v>1.043140805317304</v>
+        <v>1.05725964217173</v>
       </c>
       <c r="N9">
-        <v>1.007679877321993</v>
+        <v>1.014140802916194</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9778674635457423</v>
+        <v>1.023062012806506</v>
       </c>
       <c r="D10">
-        <v>1.036646710537426</v>
+        <v>1.051625649744886</v>
       </c>
       <c r="E10">
-        <v>1.002774262661952</v>
+        <v>1.036167402775326</v>
       </c>
       <c r="F10">
-        <v>1.024102942350476</v>
+        <v>1.052907475788311</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057321040263026</v>
+        <v>1.042879561204314</v>
       </c>
       <c r="J10">
-        <v>1.006987578097969</v>
+        <v>1.029484445757916</v>
       </c>
       <c r="K10">
-        <v>1.050384387496657</v>
+        <v>1.055016333205616</v>
       </c>
       <c r="L10">
-        <v>1.017093606953481</v>
+        <v>1.039612403345939</v>
       </c>
       <c r="M10">
-        <v>1.038050233224758</v>
+        <v>1.056293733996571</v>
       </c>
       <c r="N10">
-        <v>1.006306199959312</v>
+        <v>1.013859263747251</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9746902981457708</v>
+        <v>1.022457785669508</v>
       </c>
       <c r="D11">
-        <v>1.034131312553136</v>
+        <v>1.051184287912845</v>
       </c>
       <c r="E11">
-        <v>1.000175442733749</v>
+        <v>1.035647351216967</v>
       </c>
       <c r="F11">
-        <v>1.021240558879368</v>
+        <v>1.052366316369525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056257227764309</v>
+        <v>1.042761726828559</v>
       </c>
       <c r="J11">
-        <v>1.005155257665522</v>
+        <v>1.029117579109925</v>
       </c>
       <c r="K11">
-        <v>1.048437042641097</v>
+        <v>1.054695998708712</v>
       </c>
       <c r="L11">
-        <v>1.015094051220037</v>
+        <v>1.039215762592557</v>
       </c>
       <c r="M11">
-        <v>1.035772726265311</v>
+        <v>1.055873789111227</v>
       </c>
       <c r="N11">
-        <v>1.005694040588191</v>
+        <v>1.013737257953926</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.973496506030527</v>
+        <v>1.022233436022771</v>
       </c>
       <c r="D12">
-        <v>1.0331847155442</v>
+        <v>1.051020074096409</v>
       </c>
       <c r="E12">
-        <v>0.9991997876260688</v>
+        <v>1.035454240936622</v>
       </c>
       <c r="F12">
-        <v>1.020164467145729</v>
+        <v>1.052165172519576</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055854200345881</v>
+        <v>1.042717524403581</v>
       </c>
       <c r="J12">
-        <v>1.004466493878943</v>
+        <v>1.028981282793759</v>
       </c>
       <c r="K12">
-        <v>1.047702616624658</v>
+        <v>1.054576612906694</v>
       </c>
       <c r="L12">
-        <v>1.014342334516494</v>
+        <v>1.039068370345669</v>
       </c>
       <c r="M12">
-        <v>1.034915282594536</v>
+        <v>1.055717549036313</v>
       </c>
       <c r="N12">
-        <v>1.005463925563431</v>
+        <v>1.013691925273256</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9737532083360306</v>
+        <v>1.022281555820741</v>
       </c>
       <c r="D13">
-        <v>1.033388327093452</v>
+        <v>1.051055310812084</v>
       </c>
       <c r="E13">
-        <v>0.9994095450783542</v>
+        <v>1.035495661006859</v>
       </c>
       <c r="F13">
-        <v>1.020395884683484</v>
+        <v>1.052208324554817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055941011786428</v>
+        <v>1.042727025574215</v>
       </c>
       <c r="J13">
-        <v>1.004614611680468</v>
+        <v>1.029010519964385</v>
       </c>
       <c r="K13">
-        <v>1.047860662400228</v>
+        <v>1.054602239609532</v>
       </c>
       <c r="L13">
-        <v>1.014503994054813</v>
+        <v>1.03909998927887</v>
       </c>
       <c r="M13">
-        <v>1.035099734398155</v>
+        <v>1.055751074524368</v>
       </c>
       <c r="N13">
-        <v>1.005513411744992</v>
+        <v>1.013701649928542</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.974591901733627</v>
+        <v>1.022439239072738</v>
       </c>
       <c r="D14">
-        <v>1.034053319716606</v>
+        <v>1.051170719492799</v>
       </c>
       <c r="E14">
-        <v>1.000095008644574</v>
+        <v>1.035631387427761</v>
       </c>
       <c r="F14">
-        <v>1.021151874882972</v>
+        <v>1.052349692462012</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056224075612877</v>
+        <v>1.042758081879659</v>
       </c>
       <c r="J14">
-        <v>1.005098492974928</v>
+        <v>1.029106313332874</v>
       </c>
       <c r="K14">
-        <v>1.04837656354131</v>
+        <v>1.05468613837729</v>
       </c>
       <c r="L14">
-        <v>1.015032099973212</v>
+        <v>1.039203580365592</v>
       </c>
       <c r="M14">
-        <v>1.035702086647045</v>
+        <v>1.05586087942711</v>
       </c>
       <c r="N14">
-        <v>1.005675075691595</v>
+        <v>1.013733511030046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9751068171342585</v>
+        <v>1.022536404515468</v>
       </c>
       <c r="D15">
-        <v>1.034461403062147</v>
+        <v>1.051241790555038</v>
       </c>
       <c r="E15">
-        <v>1.000515960154996</v>
+        <v>1.035715020954098</v>
       </c>
       <c r="F15">
-        <v>1.021615941611781</v>
+        <v>1.052436776305348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056397428813546</v>
+        <v>1.042777159282408</v>
       </c>
       <c r="J15">
-        <v>1.005395535231275</v>
+        <v>1.02916533141054</v>
       </c>
       <c r="K15">
-        <v>1.048692944423505</v>
+        <v>1.054737778314374</v>
       </c>
       <c r="L15">
-        <v>1.015356279246234</v>
+        <v>1.039267398045436</v>
       </c>
       <c r="M15">
-        <v>1.036071680435319</v>
+        <v>1.055928500262081</v>
       </c>
       <c r="N15">
-        <v>1.005774316300587</v>
+        <v>1.01375313982214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9780764476865417</v>
+        <v>1.023102125547027</v>
       </c>
       <c r="D16">
-        <v>1.036811956608765</v>
+        <v>1.051654903171713</v>
       </c>
       <c r="E16">
-        <v>1.002945315997032</v>
+        <v>1.036201925219029</v>
       </c>
       <c r="F16">
-        <v>1.024291135944162</v>
+        <v>1.052943371986913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057390550682963</v>
+        <v>1.042887320637973</v>
       </c>
       <c r="J16">
-        <v>1.007108060706304</v>
+        <v>1.029508789831755</v>
       </c>
       <c r="K16">
-        <v>1.050512093242966</v>
+        <v>1.055037536663339</v>
       </c>
       <c r="L16">
-        <v>1.017225072665809</v>
+        <v>1.039638718296323</v>
       </c>
       <c r="M16">
-        <v>1.038199801020445</v>
+        <v>1.056321568669866</v>
       </c>
       <c r="N16">
-        <v>1.006346450944834</v>
+        <v>1.013867358845992</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.979915679878022</v>
+        <v>1.023457141738811</v>
       </c>
       <c r="D17">
-        <v>1.038265074019598</v>
+        <v>1.051913550315238</v>
       </c>
       <c r="E17">
-        <v>1.004451307984254</v>
+        <v>1.036507452735864</v>
       </c>
       <c r="F17">
-        <v>1.025946896820397</v>
+        <v>1.053260906882918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057999734845665</v>
+        <v>1.042955648379697</v>
       </c>
       <c r="J17">
-        <v>1.00816816498247</v>
+        <v>1.02972418538987</v>
       </c>
       <c r="K17">
-        <v>1.051633869490474</v>
+        <v>1.055224853801516</v>
       </c>
       <c r="L17">
-        <v>1.018381737212825</v>
+        <v>1.039871525524273</v>
       </c>
       <c r="M17">
-        <v>1.039514780020645</v>
+        <v>1.056567676022936</v>
       </c>
       <c r="N17">
-        <v>1.006700605432334</v>
+        <v>1.01393897957148</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9809802182352767</v>
+        <v>1.023664271972576</v>
       </c>
       <c r="D18">
-        <v>1.039105123792774</v>
+        <v>1.052064238503474</v>
       </c>
       <c r="E18">
-        <v>1.005323441886272</v>
+        <v>1.036685699240278</v>
       </c>
       <c r="F18">
-        <v>1.026904812500237</v>
+        <v>1.053446032837172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058350174846548</v>
+        <v>1.042995223689159</v>
       </c>
       <c r="J18">
-        <v>1.008781539940677</v>
+        <v>1.02984980478922</v>
       </c>
       <c r="K18">
-        <v>1.052281345973071</v>
+        <v>1.055333855100001</v>
       </c>
       <c r="L18">
-        <v>1.019050914141256</v>
+        <v>1.040007277233791</v>
       </c>
       <c r="M18">
-        <v>1.040274750330461</v>
+        <v>1.056711062120527</v>
       </c>
       <c r="N18">
-        <v>1.006905512835412</v>
+        <v>1.01398074530079</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9813418191789079</v>
+        <v>1.023734907377885</v>
       </c>
       <c r="D19">
-        <v>1.039390296312778</v>
+        <v>1.052115589315512</v>
       </c>
       <c r="E19">
-        <v>1.005619765344891</v>
+        <v>1.036746483001711</v>
       </c>
       <c r="F19">
-        <v>1.027230120230089</v>
+        <v>1.053509141229546</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058468844070257</v>
+        <v>1.043008670474888</v>
       </c>
       <c r="J19">
-        <v>1.008989853862753</v>
+        <v>1.029892634814056</v>
       </c>
       <c r="K19">
-        <v>1.052500970969506</v>
+        <v>1.0553709779783</v>
       </c>
       <c r="L19">
-        <v>1.01927816754363</v>
+        <v>1.040053558100013</v>
       </c>
       <c r="M19">
-        <v>1.040532701127194</v>
+        <v>1.056759925181392</v>
       </c>
       <c r="N19">
-        <v>1.006975102235907</v>
+        <v>1.013994984725366</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9797192065222877</v>
+        <v>1.023419046134444</v>
       </c>
       <c r="D20">
-        <v>1.038109950464845</v>
+        <v>1.051885818147319</v>
       </c>
       <c r="E20">
-        <v>1.004290382936109</v>
+        <v>1.036474668637761</v>
       </c>
       <c r="F20">
-        <v>1.025770066515681</v>
+        <v>1.053226847356523</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057934882324975</v>
+        <v>1.042948346321586</v>
       </c>
       <c r="J20">
-        <v>1.008054942164222</v>
+        <v>1.029701077255609</v>
       </c>
       <c r="K20">
-        <v>1.051514223501167</v>
+        <v>1.055204783079948</v>
       </c>
       <c r="L20">
-        <v>1.018258208333739</v>
+        <v>1.039846551724132</v>
       </c>
       <c r="M20">
-        <v>1.039374426148669</v>
+        <v>1.056541288001008</v>
       </c>
       <c r="N20">
-        <v>1.006662781097158</v>
+        <v>1.013931296318114</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.97434531030035</v>
+        <v>1.022392802869527</v>
       </c>
       <c r="D21">
-        <v>1.033857838659468</v>
+        <v>1.051136742016247</v>
       </c>
       <c r="E21">
-        <v>0.9998934462240081</v>
+        <v>1.035591417710628</v>
       </c>
       <c r="F21">
-        <v>1.020929614801837</v>
+        <v>1.052308066798065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056140939943063</v>
+        <v>1.042748948530255</v>
       </c>
       <c r="J21">
-        <v>1.00495623041756</v>
+        <v>1.029078105275503</v>
       </c>
       <c r="K21">
-        <v>1.048224953195033</v>
+        <v>1.054661443290903</v>
       </c>
       <c r="L21">
-        <v>1.014876837580759</v>
+        <v>1.039173077080178</v>
       </c>
       <c r="M21">
-        <v>1.035525029659827</v>
+        <v>1.055828551614728</v>
       </c>
       <c r="N21">
-        <v>1.005627546149801</v>
+        <v>1.013724129121649</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9708871523583471</v>
+        <v>1.021748068094211</v>
       </c>
       <c r="D22">
-        <v>1.03111313254168</v>
+        <v>1.050664193163342</v>
       </c>
       <c r="E22">
-        <v>0.9970688371149938</v>
+        <v>1.035036430817327</v>
       </c>
       <c r="F22">
-        <v>1.017811428495204</v>
+        <v>1.05172962352018</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054967292142191</v>
+        <v>1.042621071663779</v>
       </c>
       <c r="J22">
-        <v>1.002960535958319</v>
+        <v>1.028686269791628</v>
       </c>
       <c r="K22">
-        <v>1.046092442535877</v>
+        <v>1.054317514538488</v>
       </c>
       <c r="L22">
-        <v>1.01269858541348</v>
+        <v>1.038749277498777</v>
       </c>
       <c r="M22">
-        <v>1.033038107030707</v>
+        <v>1.055378958059678</v>
       </c>
       <c r="N22">
-        <v>1.004960779108504</v>
+        <v>1.013593792336807</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9727281645049275</v>
+        <v>1.022089805984159</v>
       </c>
       <c r="D23">
-        <v>1.032575077239476</v>
+        <v>1.050914848892045</v>
       </c>
       <c r="E23">
-        <v>0.9985720849713865</v>
+        <v>1.035330606378598</v>
       </c>
       <c r="F23">
-        <v>1.019471729142112</v>
+        <v>1.052036339591095</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05559388513353</v>
+        <v>1.042689098966789</v>
       </c>
       <c r="J23">
-        <v>1.004023120432007</v>
+        <v>1.028894002933928</v>
       </c>
       <c r="K23">
-        <v>1.047229175285744</v>
+        <v>1.05450005603913</v>
       </c>
       <c r="L23">
-        <v>1.013858413566517</v>
+        <v>1.038973975337096</v>
       </c>
       <c r="M23">
-        <v>1.034362955359515</v>
+        <v>1.055617434721163</v>
       </c>
       <c r="N23">
-        <v>1.005315793751505</v>
+        <v>1.013662894041406</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9798080098316678</v>
+        <v>1.023436259727446</v>
       </c>
       <c r="D24">
-        <v>1.038180067353589</v>
+        <v>1.051898349665207</v>
       </c>
       <c r="E24">
-        <v>1.004363117427473</v>
+        <v>1.036489482244861</v>
       </c>
       <c r="F24">
-        <v>1.025849992772238</v>
+        <v>1.053242237658676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057964201471413</v>
+        <v>1.04295164666978</v>
       </c>
       <c r="J24">
-        <v>1.008106118000529</v>
+        <v>1.029711518879969</v>
       </c>
       <c r="K24">
-        <v>1.051568307471378</v>
+        <v>1.055213852971193</v>
       </c>
       <c r="L24">
-        <v>1.018314042640715</v>
+        <v>1.039857836435606</v>
       </c>
       <c r="M24">
-        <v>1.039437867727093</v>
+        <v>1.056553212119576</v>
       </c>
       <c r="N24">
-        <v>1.006679877422088</v>
+        <v>1.013934768078746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9877021105476042</v>
+        <v>1.025000909743112</v>
       </c>
       <c r="D25">
-        <v>1.044390468324297</v>
+        <v>1.053032723742363</v>
       </c>
       <c r="E25">
-        <v>1.010838203523488</v>
+        <v>1.037835757550234</v>
       </c>
       <c r="F25">
-        <v>1.032944933128348</v>
+        <v>1.05463820438907</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060523849516683</v>
+        <v>1.043245366073698</v>
       </c>
       <c r="J25">
-        <v>1.012650555978851</v>
+        <v>1.03065952293909</v>
       </c>
       <c r="K25">
-        <v>1.056336656837847</v>
+        <v>1.056032062421605</v>
       </c>
       <c r="L25">
-        <v>1.023270568308653</v>
+        <v>1.040881902740547</v>
       </c>
       <c r="M25">
-        <v>1.045052476035994</v>
+        <v>1.057632684109652</v>
       </c>
       <c r="N25">
-        <v>1.008197885350863</v>
+        <v>1.014249891629766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026250579526633</v>
+        <v>0.9937629107150221</v>
       </c>
       <c r="D2">
-        <v>1.053931840132151</v>
+        <v>1.049123164488781</v>
       </c>
       <c r="E2">
-        <v>1.038910667876532</v>
+        <v>1.015821600110374</v>
       </c>
       <c r="F2">
-        <v>1.055748805978192</v>
+        <v>1.038375542590175</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04347076485328</v>
+        <v>1.062419501514497</v>
       </c>
       <c r="J2">
-        <v>1.031415066543644</v>
+        <v>1.016131785972065</v>
       </c>
       <c r="K2">
-        <v>1.056676446262077</v>
+        <v>1.059938065730424</v>
       </c>
       <c r="L2">
-        <v>1.041697355734919</v>
+        <v>1.027064829065167</v>
       </c>
       <c r="M2">
-        <v>1.058488409858822</v>
+        <v>1.049324931774045</v>
       </c>
       <c r="N2">
-        <v>1.014500921118896</v>
+        <v>1.009360454295425</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027158924581206</v>
+        <v>0.9980377491391077</v>
       </c>
       <c r="D3">
-        <v>1.054581360211444</v>
+        <v>1.052438861033228</v>
       </c>
       <c r="E3">
-        <v>1.039691773165726</v>
+        <v>1.019342413055655</v>
       </c>
       <c r="F3">
-        <v>1.056553533799975</v>
+        <v>1.042194818128866</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043629259391321</v>
+        <v>1.063714907366657</v>
       </c>
       <c r="J3">
-        <v>1.031963303574436</v>
+        <v>1.01858205040501</v>
       </c>
       <c r="K3">
-        <v>1.057139527880136</v>
+        <v>1.062442020108121</v>
       </c>
       <c r="L3">
-        <v>1.042288647969613</v>
+        <v>1.029733644233504</v>
       </c>
       <c r="M3">
-        <v>1.059106662827597</v>
+        <v>1.052314839474698</v>
       </c>
       <c r="N3">
-        <v>1.014683003432843</v>
+        <v>1.010178514460865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027747129478519</v>
+        <v>1.000748891188556</v>
       </c>
       <c r="D4">
-        <v>1.055000095123257</v>
+        <v>1.054530733529907</v>
       </c>
       <c r="E4">
-        <v>1.040197480597366</v>
+        <v>1.021577737178314</v>
       </c>
       <c r="F4">
-        <v>1.057073463683359</v>
+        <v>1.0446114520473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043729419100503</v>
+        <v>1.064516729998435</v>
       </c>
       <c r="J4">
-        <v>1.032317879723355</v>
+        <v>1.02013345963364</v>
       </c>
       <c r="K4">
-        <v>1.057436941424941</v>
+        <v>1.064012722723119</v>
       </c>
       <c r="L4">
-        <v>1.04267087643754</v>
+        <v>1.031422530475582</v>
       </c>
       <c r="M4">
-        <v>1.059505278445231</v>
+        <v>1.054199695756203</v>
       </c>
       <c r="N4">
-        <v>1.014800734056865</v>
+        <v>1.01069636304956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027994516195931</v>
+        <v>1.001875952829486</v>
       </c>
       <c r="D5">
-        <v>1.055175758548427</v>
+        <v>1.055397633922188</v>
       </c>
       <c r="E5">
-        <v>1.040410145443765</v>
+        <v>1.022507520234834</v>
       </c>
       <c r="F5">
-        <v>1.057291852834006</v>
+        <v>1.045614674946342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043770951292097</v>
+        <v>1.064845255186131</v>
       </c>
       <c r="J5">
-        <v>1.032466901831127</v>
+        <v>1.020777758180637</v>
       </c>
       <c r="K5">
-        <v>1.057561438073082</v>
+        <v>1.064661444945732</v>
       </c>
       <c r="L5">
-        <v>1.042831473686673</v>
+        <v>1.032123695435909</v>
       </c>
       <c r="M5">
-        <v>1.059672511043899</v>
+        <v>1.05498046160407</v>
       </c>
       <c r="N5">
-        <v>1.014850206375642</v>
+        <v>1.010911395340677</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028036059660763</v>
+        <v>1.002064459402479</v>
       </c>
       <c r="D6">
-        <v>1.055205231290668</v>
+        <v>1.055542464696361</v>
       </c>
       <c r="E6">
-        <v>1.040445856597764</v>
+        <v>1.022663060545335</v>
       </c>
       <c r="F6">
-        <v>1.057328510170977</v>
+        <v>1.045782384225247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043777890981019</v>
+        <v>1.064899918223273</v>
       </c>
       <c r="J6">
-        <v>1.032491920822803</v>
+        <v>1.020885481534373</v>
       </c>
       <c r="K6">
-        <v>1.057582310122257</v>
+        <v>1.064769695120575</v>
       </c>
       <c r="L6">
-        <v>1.042858433261764</v>
+        <v>1.03224091283992</v>
       </c>
       <c r="M6">
-        <v>1.059700569826308</v>
+        <v>1.055110882144668</v>
       </c>
       <c r="N6">
-        <v>1.014858511715992</v>
+        <v>1.010947345809255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027750434659311</v>
+        <v>1.000764000365426</v>
       </c>
       <c r="D7">
-        <v>1.055002443813877</v>
+        <v>1.054542365900869</v>
       </c>
       <c r="E7">
-        <v>1.040200321980361</v>
+        <v>1.021590199660463</v>
       </c>
       <c r="F7">
-        <v>1.057076382556506</v>
+        <v>1.044624906711763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043729976316313</v>
+        <v>1.064521153212206</v>
       </c>
       <c r="J7">
-        <v>1.032319871129247</v>
+        <v>1.020142099563861</v>
       </c>
       <c r="K7">
-        <v>1.057438607063772</v>
+        <v>1.064021436237089</v>
       </c>
       <c r="L7">
-        <v>1.042673022707438</v>
+        <v>1.031431933889092</v>
       </c>
       <c r="M7">
-        <v>1.059507514374895</v>
+        <v>1.054210173692456</v>
       </c>
       <c r="N7">
-        <v>1.014801395193899</v>
+        <v>1.01069924671489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026557466189795</v>
+        <v>0.995219274959572</v>
       </c>
       <c r="D8">
-        <v>1.05415166773525</v>
+        <v>1.050255010864039</v>
       </c>
       <c r="E8">
-        <v>1.039174587110455</v>
+        <v>1.017020549592969</v>
       </c>
       <c r="F8">
-        <v>1.0560209284306</v>
+        <v>1.039677833887573</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043524824430262</v>
+        <v>1.062864918869321</v>
       </c>
       <c r="J8">
-        <v>1.031600380365927</v>
+        <v>1.016967070664174</v>
       </c>
       <c r="K8">
-        <v>1.056833407751942</v>
+        <v>1.060794700762922</v>
       </c>
       <c r="L8">
-        <v>1.041897263021386</v>
+        <v>1.02797479864378</v>
       </c>
       <c r="M8">
-        <v>1.058697647494623</v>
+        <v>1.050345883634036</v>
       </c>
       <c r="N8">
-        <v>1.01456247485339</v>
+        <v>1.009639350135039</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024458760416448</v>
+        <v>0.985006113339725</v>
       </c>
       <c r="D9">
-        <v>1.052640728521675</v>
+        <v>1.042274813457467</v>
       </c>
       <c r="E9">
-        <v>1.037369326685384</v>
+        <v>1.008624770640133</v>
       </c>
       <c r="F9">
-        <v>1.054155173306565</v>
+        <v>1.030524285003965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04314501290252</v>
+        <v>1.05966046086376</v>
       </c>
       <c r="J9">
-        <v>1.030331290105887</v>
+        <v>1.011099686049956</v>
       </c>
       <c r="K9">
-        <v>1.055749960845857</v>
+        <v>1.054717323571732</v>
       </c>
       <c r="L9">
-        <v>1.040527444004273</v>
+        <v>1.021579449802336</v>
       </c>
       <c r="M9">
-        <v>1.05725964217173</v>
+        <v>1.043140805317304</v>
       </c>
       <c r="N9">
-        <v>1.014140802916194</v>
+        <v>1.007679877321993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023062012806506</v>
+        <v>0.9778674635457417</v>
       </c>
       <c r="D10">
-        <v>1.051625649744886</v>
+        <v>1.036646710537425</v>
       </c>
       <c r="E10">
-        <v>1.036167402775326</v>
+        <v>1.002774262661952</v>
       </c>
       <c r="F10">
-        <v>1.052907475788311</v>
+        <v>1.024102942350475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042879561204314</v>
+        <v>1.057321040263026</v>
       </c>
       <c r="J10">
-        <v>1.029484445757916</v>
+        <v>1.006987578097968</v>
       </c>
       <c r="K10">
-        <v>1.055016333205616</v>
+        <v>1.050384387496657</v>
       </c>
       <c r="L10">
-        <v>1.039612403345939</v>
+        <v>1.01709360695348</v>
       </c>
       <c r="M10">
-        <v>1.056293733996571</v>
+        <v>1.038050233224757</v>
       </c>
       <c r="N10">
-        <v>1.013859263747251</v>
+        <v>1.006306199959312</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022457785669508</v>
+        <v>0.9746902981457706</v>
       </c>
       <c r="D11">
-        <v>1.051184287912845</v>
+        <v>1.034131312553136</v>
       </c>
       <c r="E11">
-        <v>1.035647351216967</v>
+        <v>1.000175442733749</v>
       </c>
       <c r="F11">
-        <v>1.052366316369525</v>
+        <v>1.021240558879368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042761726828559</v>
+        <v>1.056257227764309</v>
       </c>
       <c r="J11">
-        <v>1.029117579109925</v>
+        <v>1.005155257665522</v>
       </c>
       <c r="K11">
-        <v>1.054695998708712</v>
+        <v>1.048437042641097</v>
       </c>
       <c r="L11">
-        <v>1.039215762592557</v>
+        <v>1.015094051220037</v>
       </c>
       <c r="M11">
-        <v>1.055873789111227</v>
+        <v>1.035772726265311</v>
       </c>
       <c r="N11">
-        <v>1.013737257953926</v>
+        <v>1.005694040588191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022233436022771</v>
+        <v>0.9734965060305273</v>
       </c>
       <c r="D12">
-        <v>1.051020074096409</v>
+        <v>1.0331847155442</v>
       </c>
       <c r="E12">
-        <v>1.035454240936622</v>
+        <v>0.999199787626069</v>
       </c>
       <c r="F12">
-        <v>1.052165172519576</v>
+        <v>1.02016446714573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042717524403581</v>
+        <v>1.055854200345882</v>
       </c>
       <c r="J12">
-        <v>1.028981282793759</v>
+        <v>1.004466493878943</v>
       </c>
       <c r="K12">
-        <v>1.054576612906694</v>
+        <v>1.047702616624658</v>
       </c>
       <c r="L12">
-        <v>1.039068370345669</v>
+        <v>1.014342334516494</v>
       </c>
       <c r="M12">
-        <v>1.055717549036313</v>
+        <v>1.034915282594537</v>
       </c>
       <c r="N12">
-        <v>1.013691925273256</v>
+        <v>1.005463925563431</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022281555820741</v>
+        <v>0.97375320833603</v>
       </c>
       <c r="D13">
-        <v>1.051055310812084</v>
+        <v>1.033388327093451</v>
       </c>
       <c r="E13">
-        <v>1.035495661006859</v>
+        <v>0.9994095450783533</v>
       </c>
       <c r="F13">
-        <v>1.052208324554817</v>
+        <v>1.020395884683483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042727025574215</v>
+        <v>1.055941011786427</v>
       </c>
       <c r="J13">
-        <v>1.029010519964385</v>
+        <v>1.004614611680468</v>
       </c>
       <c r="K13">
-        <v>1.054602239609532</v>
+        <v>1.047860662400226</v>
       </c>
       <c r="L13">
-        <v>1.03909998927887</v>
+        <v>1.014503994054813</v>
       </c>
       <c r="M13">
-        <v>1.055751074524368</v>
+        <v>1.035099734398154</v>
       </c>
       <c r="N13">
-        <v>1.013701649928542</v>
+        <v>1.005513411744992</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022439239072738</v>
+        <v>0.9745919017336276</v>
       </c>
       <c r="D14">
-        <v>1.051170719492799</v>
+        <v>1.034053319716606</v>
       </c>
       <c r="E14">
-        <v>1.035631387427761</v>
+        <v>1.000095008644575</v>
       </c>
       <c r="F14">
-        <v>1.052349692462012</v>
+        <v>1.021151874882973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042758081879659</v>
+        <v>1.056224075612877</v>
       </c>
       <c r="J14">
-        <v>1.029106313332874</v>
+        <v>1.005098492974929</v>
       </c>
       <c r="K14">
-        <v>1.05468613837729</v>
+        <v>1.04837656354131</v>
       </c>
       <c r="L14">
-        <v>1.039203580365592</v>
+        <v>1.015032099973212</v>
       </c>
       <c r="M14">
-        <v>1.05586087942711</v>
+        <v>1.035702086647045</v>
       </c>
       <c r="N14">
-        <v>1.013733511030046</v>
+        <v>1.005675075691595</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022536404515468</v>
+        <v>0.9751068171342585</v>
       </c>
       <c r="D15">
-        <v>1.051241790555038</v>
+        <v>1.034461403062146</v>
       </c>
       <c r="E15">
-        <v>1.035715020954098</v>
+        <v>1.000515960154996</v>
       </c>
       <c r="F15">
-        <v>1.052436776305348</v>
+        <v>1.021615941611781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042777159282408</v>
+        <v>1.056397428813546</v>
       </c>
       <c r="J15">
-        <v>1.02916533141054</v>
+        <v>1.005395535231275</v>
       </c>
       <c r="K15">
-        <v>1.054737778314374</v>
+        <v>1.048692944423505</v>
       </c>
       <c r="L15">
-        <v>1.039267398045436</v>
+        <v>1.015356279246234</v>
       </c>
       <c r="M15">
-        <v>1.055928500262081</v>
+        <v>1.036071680435319</v>
       </c>
       <c r="N15">
-        <v>1.01375313982214</v>
+        <v>1.005774316300587</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023102125547027</v>
+        <v>0.9780764476865419</v>
       </c>
       <c r="D16">
-        <v>1.051654903171713</v>
+        <v>1.036811956608765</v>
       </c>
       <c r="E16">
-        <v>1.036201925219029</v>
+        <v>1.002945315997033</v>
       </c>
       <c r="F16">
-        <v>1.052943371986913</v>
+        <v>1.024291135944162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042887320637973</v>
+        <v>1.057390550682962</v>
       </c>
       <c r="J16">
-        <v>1.029508789831755</v>
+        <v>1.007108060706304</v>
       </c>
       <c r="K16">
-        <v>1.055037536663339</v>
+        <v>1.050512093242966</v>
       </c>
       <c r="L16">
-        <v>1.039638718296323</v>
+        <v>1.01722507266581</v>
       </c>
       <c r="M16">
-        <v>1.056321568669866</v>
+        <v>1.038199801020445</v>
       </c>
       <c r="N16">
-        <v>1.013867358845992</v>
+        <v>1.006346450944834</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023457141738811</v>
+        <v>0.9799156798780212</v>
       </c>
       <c r="D17">
-        <v>1.051913550315238</v>
+        <v>1.038265074019597</v>
       </c>
       <c r="E17">
-        <v>1.036507452735864</v>
+        <v>1.004451307984253</v>
       </c>
       <c r="F17">
-        <v>1.053260906882918</v>
+        <v>1.025946896820396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042955648379697</v>
+        <v>1.057999734845664</v>
       </c>
       <c r="J17">
-        <v>1.02972418538987</v>
+        <v>1.008168164982469</v>
       </c>
       <c r="K17">
-        <v>1.055224853801516</v>
+        <v>1.051633869490473</v>
       </c>
       <c r="L17">
-        <v>1.039871525524273</v>
+        <v>1.018381737212824</v>
       </c>
       <c r="M17">
-        <v>1.056567676022936</v>
+        <v>1.039514780020644</v>
       </c>
       <c r="N17">
-        <v>1.01393897957148</v>
+        <v>1.006700605432333</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023664271972576</v>
+        <v>0.9809802182352767</v>
       </c>
       <c r="D18">
-        <v>1.052064238503474</v>
+        <v>1.039105123792774</v>
       </c>
       <c r="E18">
-        <v>1.036685699240278</v>
+        <v>1.005323441886271</v>
       </c>
       <c r="F18">
-        <v>1.053446032837172</v>
+        <v>1.026904812500236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042995223689159</v>
+        <v>1.058350174846547</v>
       </c>
       <c r="J18">
-        <v>1.02984980478922</v>
+        <v>1.008781539940677</v>
       </c>
       <c r="K18">
-        <v>1.055333855100001</v>
+        <v>1.052281345973071</v>
       </c>
       <c r="L18">
-        <v>1.040007277233791</v>
+        <v>1.019050914141256</v>
       </c>
       <c r="M18">
-        <v>1.056711062120527</v>
+        <v>1.040274750330461</v>
       </c>
       <c r="N18">
-        <v>1.01398074530079</v>
+        <v>1.006905512835412</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023734907377885</v>
+        <v>0.9813418191789082</v>
       </c>
       <c r="D19">
-        <v>1.052115589315512</v>
+        <v>1.039390296312779</v>
       </c>
       <c r="E19">
-        <v>1.036746483001711</v>
+        <v>1.005619765344891</v>
       </c>
       <c r="F19">
-        <v>1.053509141229546</v>
+        <v>1.027230120230089</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043008670474888</v>
+        <v>1.058468844070257</v>
       </c>
       <c r="J19">
-        <v>1.029892634814056</v>
+        <v>1.008989853862753</v>
       </c>
       <c r="K19">
-        <v>1.0553709779783</v>
+        <v>1.052500970969506</v>
       </c>
       <c r="L19">
-        <v>1.040053558100013</v>
+        <v>1.019278167543631</v>
       </c>
       <c r="M19">
-        <v>1.056759925181392</v>
+        <v>1.040532701127194</v>
       </c>
       <c r="N19">
-        <v>1.013994984725366</v>
+        <v>1.006975102235907</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023419046134444</v>
+        <v>0.9797192065222877</v>
       </c>
       <c r="D20">
-        <v>1.051885818147319</v>
+        <v>1.038109950464846</v>
       </c>
       <c r="E20">
-        <v>1.036474668637761</v>
+        <v>1.004290382936109</v>
       </c>
       <c r="F20">
-        <v>1.053226847356523</v>
+        <v>1.025770066515681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042948346321586</v>
+        <v>1.057934882324975</v>
       </c>
       <c r="J20">
-        <v>1.029701077255609</v>
+        <v>1.008054942164222</v>
       </c>
       <c r="K20">
-        <v>1.055204783079948</v>
+        <v>1.051514223501167</v>
       </c>
       <c r="L20">
-        <v>1.039846551724132</v>
+        <v>1.018258208333739</v>
       </c>
       <c r="M20">
-        <v>1.056541288001008</v>
+        <v>1.039374426148669</v>
       </c>
       <c r="N20">
-        <v>1.013931296318114</v>
+        <v>1.006662781097158</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022392802869527</v>
+        <v>0.9743453103003511</v>
       </c>
       <c r="D21">
-        <v>1.051136742016247</v>
+        <v>1.033857838659468</v>
       </c>
       <c r="E21">
-        <v>1.035591417710628</v>
+        <v>0.999893446224009</v>
       </c>
       <c r="F21">
-        <v>1.052308066798065</v>
+        <v>1.020929614801838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042748948530255</v>
+        <v>1.056140939943063</v>
       </c>
       <c r="J21">
-        <v>1.029078105275503</v>
+        <v>1.004956230417561</v>
       </c>
       <c r="K21">
-        <v>1.054661443290903</v>
+        <v>1.048224953195034</v>
       </c>
       <c r="L21">
-        <v>1.039173077080178</v>
+        <v>1.014876837580759</v>
       </c>
       <c r="M21">
-        <v>1.055828551614728</v>
+        <v>1.035525029659828</v>
       </c>
       <c r="N21">
-        <v>1.013724129121649</v>
+        <v>1.005627546149801</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021748068094211</v>
+        <v>0.9708871523583478</v>
       </c>
       <c r="D22">
-        <v>1.050664193163342</v>
+        <v>1.031113132541681</v>
       </c>
       <c r="E22">
-        <v>1.035036430817327</v>
+        <v>0.9970688371149945</v>
       </c>
       <c r="F22">
-        <v>1.05172962352018</v>
+        <v>1.017811428495204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042621071663779</v>
+        <v>1.054967292142192</v>
       </c>
       <c r="J22">
-        <v>1.028686269791628</v>
+        <v>1.00296053595832</v>
       </c>
       <c r="K22">
-        <v>1.054317514538488</v>
+        <v>1.046092442535878</v>
       </c>
       <c r="L22">
-        <v>1.038749277498777</v>
+        <v>1.01269858541348</v>
       </c>
       <c r="M22">
-        <v>1.055378958059678</v>
+        <v>1.033038107030708</v>
       </c>
       <c r="N22">
-        <v>1.013593792336807</v>
+        <v>1.004960779108504</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022089805984159</v>
+        <v>0.9727281645049279</v>
       </c>
       <c r="D23">
-        <v>1.050914848892045</v>
+        <v>1.032575077239477</v>
       </c>
       <c r="E23">
-        <v>1.035330606378598</v>
+        <v>0.9985720849713867</v>
       </c>
       <c r="F23">
-        <v>1.052036339591095</v>
+        <v>1.019471729142112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042689098966789</v>
+        <v>1.05559388513353</v>
       </c>
       <c r="J23">
-        <v>1.028894002933928</v>
+        <v>1.004023120432007</v>
       </c>
       <c r="K23">
-        <v>1.05450005603913</v>
+        <v>1.047229175285745</v>
       </c>
       <c r="L23">
-        <v>1.038973975337096</v>
+        <v>1.013858413566518</v>
       </c>
       <c r="M23">
-        <v>1.055617434721163</v>
+        <v>1.034362955359515</v>
       </c>
       <c r="N23">
-        <v>1.013662894041406</v>
+        <v>1.005315793751505</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023436259727446</v>
+        <v>0.9798080098316674</v>
       </c>
       <c r="D24">
-        <v>1.051898349665207</v>
+        <v>1.038180067353588</v>
       </c>
       <c r="E24">
-        <v>1.036489482244861</v>
+        <v>1.004363117427472</v>
       </c>
       <c r="F24">
-        <v>1.053242237658676</v>
+        <v>1.025849992772238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04295164666978</v>
+        <v>1.057964201471413</v>
       </c>
       <c r="J24">
-        <v>1.029711518879969</v>
+        <v>1.008106118000529</v>
       </c>
       <c r="K24">
-        <v>1.055213852971193</v>
+        <v>1.051568307471378</v>
       </c>
       <c r="L24">
-        <v>1.039857836435606</v>
+        <v>1.018314042640715</v>
       </c>
       <c r="M24">
-        <v>1.056553212119576</v>
+        <v>1.039437867727093</v>
       </c>
       <c r="N24">
-        <v>1.013934768078746</v>
+        <v>1.006679877422088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025000909743112</v>
+        <v>0.9877021105476044</v>
       </c>
       <c r="D25">
-        <v>1.053032723742363</v>
+        <v>1.044390468324297</v>
       </c>
       <c r="E25">
-        <v>1.037835757550234</v>
+        <v>1.010838203523488</v>
       </c>
       <c r="F25">
-        <v>1.05463820438907</v>
+        <v>1.032944933128348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043245366073698</v>
+        <v>1.060523849516683</v>
       </c>
       <c r="J25">
-        <v>1.03065952293909</v>
+        <v>1.012650555978851</v>
       </c>
       <c r="K25">
-        <v>1.056032062421605</v>
+        <v>1.056336656837847</v>
       </c>
       <c r="L25">
-        <v>1.040881902740547</v>
+        <v>1.023270568308653</v>
       </c>
       <c r="M25">
-        <v>1.057632684109652</v>
+        <v>1.045052476035994</v>
       </c>
       <c r="N25">
-        <v>1.014249891629766</v>
+        <v>1.008197885350863</v>
       </c>
     </row>
   </sheetData>
